--- a/docs/SWIM_versionFile.xlsx
+++ b/docs/SWIM_versionFile.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malinovskiyy\Desktop\SWIM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="5700"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="13380" windowHeight="7860" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="SWIM_versionFile_dev_zones" sheetId="4" r:id="rId4"/>
+    <sheet name="SWIM_versionFile_dev_links" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$1:$B$180</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="646">
   <si>
     <t>Name</t>
   </si>
@@ -1233,6 +1235,735 @@
   </si>
   <si>
     <t>VOLVEH_DSEG(D_OFFPEAK,AP)</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Main zone number</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>CEE</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CPE</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>EFU160</t>
+  </si>
+  <si>
+    <t>EFU20</t>
+  </si>
+  <si>
+    <t>EFU40</t>
+  </si>
+  <si>
+    <t>EFU80</t>
+  </si>
+  <si>
+    <t>FF160</t>
+  </si>
+  <si>
+    <t>FF20</t>
+  </si>
+  <si>
+    <t>FF40</t>
+  </si>
+  <si>
+    <t>FF80</t>
+  </si>
+  <si>
+    <t>FOR</t>
+  </si>
+  <si>
+    <t>FUD</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>IH</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>IRM</t>
+  </si>
+  <si>
+    <t>LDR</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MDR</t>
+  </si>
+  <si>
+    <t>MFL10</t>
+  </si>
+  <si>
+    <t>MHDR</t>
+  </si>
+  <si>
+    <t>MLDR</t>
+  </si>
+  <si>
+    <t>MUREH</t>
+  </si>
+  <si>
+    <t>MURH</t>
+  </si>
+  <si>
+    <t>MURL</t>
+  </si>
+  <si>
+    <t>MURM</t>
+  </si>
+  <si>
+    <t>MURMH</t>
+  </si>
+  <si>
+    <t>MURVH</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>OSC</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>PF80</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>RNG</t>
+  </si>
+  <si>
+    <t>RR1</t>
+  </si>
+  <si>
+    <t>RR10</t>
+  </si>
+  <si>
+    <t>RR2</t>
+  </si>
+  <si>
+    <t>RR5</t>
+  </si>
+  <si>
+    <t>SF80</t>
+  </si>
+  <si>
+    <t>UCRC</t>
+  </si>
+  <si>
+    <t>UCRI</t>
+  </si>
+  <si>
+    <t>VHDR</t>
+  </si>
+  <si>
+    <t>VLDR</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>VISUM FIELD</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Visum field for alpha zones (user needs to update alpha zone field here and in AZONE)</t>
+  </si>
+  <si>
+    <t>Visum field for beta zones (user needs to update beta zone field here and in BZONE)</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>MAYBE</t>
+  </si>
+  <si>
+    <t>Density measure 1-4 (4 = highest urban density)</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Very Low-density Res.</t>
+  </si>
+  <si>
+    <t>Low-density Res.</t>
+  </si>
+  <si>
+    <t>Medium Low-density Res.</t>
+  </si>
+  <si>
+    <t>Medium-density Res.</t>
+  </si>
+  <si>
+    <t>Medium High-density Res.</t>
+  </si>
+  <si>
+    <t>High-density Res.</t>
+  </si>
+  <si>
+    <t>Very High-density Res.</t>
+  </si>
+  <si>
+    <t>Mixed-Use Com. &amp; Res. Low</t>
+  </si>
+  <si>
+    <t>Mixed-Use Com. &amp; Res. Medium</t>
+  </si>
+  <si>
+    <t>Mixed-Use Com. &amp; Res. Med-high</t>
+  </si>
+  <si>
+    <t>Mixed-Use Com. &amp; Res. High</t>
+  </si>
+  <si>
+    <t>Mixed-Use Com. &amp; Res. V.High</t>
+  </si>
+  <si>
+    <t>Mixed-Use Com. &amp; Res. Extremely High</t>
+  </si>
+  <si>
+    <t>Commercial - Central</t>
+  </si>
+  <si>
+    <t>Commercial - General</t>
+  </si>
+  <si>
+    <t>Commercial - Neighborhood</t>
+  </si>
+  <si>
+    <t>Commercial - Office</t>
+  </si>
+  <si>
+    <t>Public &amp; semi-public Uses</t>
+  </si>
+  <si>
+    <t>Parks &amp; Open Space</t>
+  </si>
+  <si>
+    <t>Industrial Campus</t>
+  </si>
+  <si>
+    <t>Industrial Office</t>
+  </si>
+  <si>
+    <t>Industral - Light</t>
+  </si>
+  <si>
+    <t>Industral - Heavy</t>
+  </si>
+  <si>
+    <t>Future Urban Development</t>
+  </si>
+  <si>
+    <t>Marginal Farm Land 10+</t>
+  </si>
+  <si>
+    <t>Exclusive Farm Use 20+</t>
+  </si>
+  <si>
+    <t>Exclusive Farm Use 40+</t>
+  </si>
+  <si>
+    <t>Exclusive Farm Use 80</t>
+  </si>
+  <si>
+    <t>Exclusive Farm Use 160+</t>
+  </si>
+  <si>
+    <t>Mixed Farm-Forest 20</t>
+  </si>
+  <si>
+    <t>Mixed Farm-Forest 40</t>
+  </si>
+  <si>
+    <t>Mixed Farm-Forest 80</t>
+  </si>
+  <si>
+    <t>Mixed Farm-Forest 160+</t>
+  </si>
+  <si>
+    <t>Secondary Forest 80</t>
+  </si>
+  <si>
+    <t>Prime Forest 80</t>
+  </si>
+  <si>
+    <t>Rural Residential 10 acres</t>
+  </si>
+  <si>
+    <t>Rural Residential 5 acres</t>
+  </si>
+  <si>
+    <t>Rural Residential 2-4 acres</t>
+  </si>
+  <si>
+    <t>Rural Residential 1 acre</t>
+  </si>
+  <si>
+    <t>UC Rural Commercial</t>
+  </si>
+  <si>
+    <t>UC Rural Industrial</t>
+  </si>
+  <si>
+    <t>Open Space/Conservation</t>
+  </si>
+  <si>
+    <t>Mineral and Aggregate</t>
+  </si>
+  <si>
+    <t>Coastal Estuarine</t>
+  </si>
+  <si>
+    <t>Coastal Shorelands</t>
+  </si>
+  <si>
+    <t>Beaches and Dunes</t>
+  </si>
+  <si>
+    <t>Federal Range</t>
+  </si>
+  <si>
+    <t>Federal Forest</t>
+  </si>
+  <si>
+    <t>Indian reservation/tribal trust</t>
+  </si>
+  <si>
+    <t>Combo equal emphasis</t>
+  </si>
+  <si>
+    <t>Combo with priority emphasis</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>alpha2beta.csv, AllZones.csv</t>
+  </si>
+  <si>
+    <t>Daily parking cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totally worthless </t>
+  </si>
+  <si>
+    <t>Transit fare distrcit - is this used?</t>
+  </si>
+  <si>
+    <t>Area Commission on Transportation (1-12)</t>
+  </si>
+  <si>
+    <t>15 ALD regions have been defined for the SWIM area</t>
+  </si>
+  <si>
+    <t>The total sqft for the given alpha zone</t>
+  </si>
+  <si>
+    <t>County Name (out-of-state county names are formatted with Name_St)</t>
+  </si>
+  <si>
+    <t>Zoning Category - Beaches and Dunes</t>
+  </si>
+  <si>
+    <t>Zoning Category - Commercial - Central</t>
+  </si>
+  <si>
+    <t>Zoning Category - Coastal Estuarine</t>
+  </si>
+  <si>
+    <t>Zoning Category - Combo equal emphasis</t>
+  </si>
+  <si>
+    <t>Zoning Category - Commercial - General</t>
+  </si>
+  <si>
+    <t>Zoning Category - Commercial - Neighborhood</t>
+  </si>
+  <si>
+    <t>Zoning Category - Commercial - Office</t>
+  </si>
+  <si>
+    <t>Zoning Category - Combo with priority emphasis</t>
+  </si>
+  <si>
+    <t>Zoning Category - Coastal Shorelands</t>
+  </si>
+  <si>
+    <t>Zoning Category - Exclusive Farm Use 160+</t>
+  </si>
+  <si>
+    <t>Zoning Category - Exclusive Farm Use 20+</t>
+  </si>
+  <si>
+    <t>Zoning Category - Exclusive Farm Use 40+</t>
+  </si>
+  <si>
+    <t>Zoning Category - Exclusive Farm Use 80</t>
+  </si>
+  <si>
+    <t>ActivityConstraintsI.csv, ActivityTotalsI.csv</t>
+  </si>
+  <si>
+    <t>Transit fare distrcit - relates with IntraCityTransitFares.csv</t>
+  </si>
+  <si>
+    <t>Zoning Category - Mixed Farm-Forest 160+</t>
+  </si>
+  <si>
+    <t>Zoning Category - Mixed Farm-Forest 20</t>
+  </si>
+  <si>
+    <t>Zoning Category - Mixed Farm-Forest 40</t>
+  </si>
+  <si>
+    <t>Zoning Category - Mixed Farm-Forest 80</t>
+  </si>
+  <si>
+    <t>Floorspace for Attached Dwelling</t>
+  </si>
+  <si>
+    <t>Floorspace for Institutional</t>
+  </si>
+  <si>
+    <t>Floorspace for Mult-Family Dwelling</t>
+  </si>
+  <si>
+    <t>Floorspace for Mobile Home</t>
+  </si>
+  <si>
+    <t>Floorspace for Rural Residential Mobile Home</t>
+  </si>
+  <si>
+    <t>Floorspace for Rural Residential Single Family Dwelling</t>
+  </si>
+  <si>
+    <t>FloorspaceInventory.csv, FloorspaceI.csv</t>
+  </si>
+  <si>
+    <t>Floorspace for Single Family Dwelling</t>
+  </si>
+  <si>
+    <t>Zoning Category - Federal Forest</t>
+  </si>
+  <si>
+    <t>Zoning Category - Future Urban Development</t>
+  </si>
+  <si>
+    <t>Zoning Category - High-density Res.</t>
+  </si>
+  <si>
+    <t>Household Income $0 to 4,999 (1990 dollars with 1.517 inflator to 2009) Household size 1 to 2 persons</t>
+  </si>
+  <si>
+    <t>Household Income $0 to 4,999 (1990 dollars with 1.517 inflator to 2009) Household size 3 or more persons</t>
+  </si>
+  <si>
+    <t>Household Income $10,000 to $14,999 (1990 dollars with 1.517 inflator to 2009)  Household size 1 to 2 persons</t>
+  </si>
+  <si>
+    <t>Household Income $10,000 to $14,999 (1990 dollars with 1.517 inflator to 2009)  Household size 3 or more persons</t>
+  </si>
+  <si>
+    <t>Household Income $15,000 to $19,999 (1990 dollars with 1.517 inflator to 2009)  Household size 1 to 2 persons</t>
+  </si>
+  <si>
+    <t>Household Income $15,000 to $19,999 (1990 dollars with 1.517 inflator to 2009)  Household size 3 or more persons</t>
+  </si>
+  <si>
+    <t>Household Income $20,000 to $29,999 (1990 dollars with 1.517 inflator to 2009)  Household size 1 to 2 persons</t>
+  </si>
+  <si>
+    <t>Household Income $20,000 to $29,999 (1990 dollars with 1.517 inflator to 2009)  Household size 3 or more persons</t>
+  </si>
+  <si>
+    <t>Household Income $30,000 to $39,999 (1990 dollars with 1.517 inflator to 2009)  Household size 1 to 2 persons</t>
+  </si>
+  <si>
+    <t>Household Income $30,000 to $39,999 (1990 dollars with 1.517 inflator to 2009)  Household size 3 or more persons</t>
+  </si>
+  <si>
+    <t>Household Income $40,000 to $49,999 (1990 dollars with 1.517 inflator to 2009)  Household size 1 to 2 persons</t>
+  </si>
+  <si>
+    <t>Household Income $40,000 to $49,999 (1990 dollars with 1.517 inflator to 2009)  Household size 3 or more persons</t>
+  </si>
+  <si>
+    <t>Household Income $50,000 to $69,999 (1990 dollars with 1.517 inflator to 2009)  Household size 1 to 2 persons</t>
+  </si>
+  <si>
+    <t>Household Income $50,000 to $69,999 (1990 dollars with 1.517 inflator to 2009)  Household size 3 or more persons</t>
+  </si>
+  <si>
+    <t>Household Income $5,000 to $9,999 (1990 dollars with 1.517 inflator to 2009)  Household size 1 to 2 persons</t>
+  </si>
+  <si>
+    <t>Household Income $5,000 to $9,999 (1990 dollars with 1.517 inflator to 2009)  Household size 3 or more persons</t>
+  </si>
+  <si>
+    <t>Household Income $70,000 to over (1990 dollars with 1.517 inflator to 2009)  Household size 1 to 2 persons</t>
+  </si>
+  <si>
+    <t>Household Income $70,000 to over (1990 dollars with 1.517 inflator to 2009)  Household size 3 or more persons</t>
+  </si>
+  <si>
+    <t>Hourly Parking Cost</t>
+  </si>
+  <si>
+    <t>Zoning Category - Industrial Campus</t>
+  </si>
+  <si>
+    <t>Zoning Category - Industral - Heavy</t>
+  </si>
+  <si>
+    <t>Zoning Category - Industral - Light</t>
+  </si>
+  <si>
+    <t>Zoning Category - Industrial Office</t>
+  </si>
+  <si>
+    <t>Zoning Category - Indian reservation/tribal trust</t>
+  </si>
+  <si>
+    <t>Zoning Category - Low-density Res.</t>
+  </si>
+  <si>
+    <t>Zoning Category - Mineral and Aggregate</t>
+  </si>
+  <si>
+    <t>Zoning Category - Medium-density Res.</t>
+  </si>
+  <si>
+    <t>WE NEED TO UNDERSTAND WHAT THIS IS  !!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Zoning Category - Marginal Farm Land 10+</t>
+  </si>
+  <si>
+    <t>Zoning Category - Medium High-density Res.</t>
+  </si>
+  <si>
+    <t>Zoning Category - Medium Low-density Res.</t>
+  </si>
+  <si>
+    <t>Zoning Category - Mixed-Use Com. &amp; Res. Extremely High</t>
+  </si>
+  <si>
+    <t>Zoning Category - Mixed-Use Com. &amp; Res. High</t>
+  </si>
+  <si>
+    <t>Zoning Category - Mixed-Use Com. &amp; Res. Low</t>
+  </si>
+  <si>
+    <t>Zoning Category - Mixed-Use Com. &amp; Res. Medium</t>
+  </si>
+  <si>
+    <t>Zoning Category - Mixed-Use Com. &amp; Res. Med-high</t>
+  </si>
+  <si>
+    <t>Zoning Category - Mixed-Use Com. &amp; Res. V.High</t>
+  </si>
+  <si>
+    <t>Metropolitan Planning Organization Identifying Flag</t>
+  </si>
+  <si>
+    <t>1990 PUMA Boundary</t>
+  </si>
+  <si>
+    <t>2000 PUMA Boundary</t>
+  </si>
+  <si>
+    <t>Zoning Category - Rural Commercial</t>
+  </si>
+  <si>
+    <t>Zoning Category - Rural Industrial</t>
+  </si>
+  <si>
+    <t>Zoning Category - Federal Range</t>
+  </si>
+  <si>
+    <t>Zoning Category - Rural Residential 1 acre</t>
+  </si>
+  <si>
+    <t>Zoning Category - Rural Residential 10 acres</t>
+  </si>
+  <si>
+    <t>Zoning Category - Rural Residential 2-4 acres</t>
+  </si>
+  <si>
+    <t>Zoning Category - Rural Residential 5 acres</t>
+  </si>
+  <si>
+    <t>Zoning Category - Secondary Forest 80</t>
+  </si>
+  <si>
+    <t>Zoning Category - UC Rural Commercial</t>
+  </si>
+  <si>
+    <t>Zoning Category - UC Rural Industrial</t>
+  </si>
+  <si>
+    <t>Zoning Category - Very High-density Res.</t>
+  </si>
+  <si>
+    <t>Zoning Category - Very Low-density Res.</t>
+  </si>
+  <si>
+    <t>Zoning Category - Water</t>
+  </si>
+  <si>
+    <t>A dictionary of service areas and level of service and assigns transit level of service to each alpha zone based on service area</t>
+  </si>
+  <si>
+    <t>Used In VISUM</t>
+  </si>
+  <si>
+    <t>AllZones.csv, alpha2beta.csv</t>
+  </si>
+  <si>
+    <t>State Abbreviation</t>
+  </si>
+  <si>
+    <t>From node number</t>
+  </si>
+  <si>
+    <t>To node number</t>
+  </si>
+  <si>
+    <t>Type number</t>
+  </si>
+  <si>
+    <t>TSys set</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Capacity PrT</t>
+  </si>
+  <si>
+    <t>v0 PrT</t>
+  </si>
+  <si>
+    <t>AllZones.csv,alpha2beta.csv</t>
+  </si>
+  <si>
+    <t>Internal link numbering</t>
+  </si>
+  <si>
+    <t>From node\X-coordinate</t>
+  </si>
+  <si>
+    <t>From node\Y-coordinate</t>
+  </si>
+  <si>
+    <t>To node\X-coordinate</t>
+  </si>
+  <si>
+    <t>To node\Y-coordinate</t>
+  </si>
+  <si>
+    <t>Re-named in AllLinks.csv as ANODEX</t>
+  </si>
+  <si>
+    <t>Re-named in AllLinks.csv as ANODEY</t>
+  </si>
+  <si>
+    <t>Re-named in AllLinks.csv as BNODEX</t>
+  </si>
+  <si>
+    <t>Re-named in AllLinks.csv as BNODEY</t>
+  </si>
+  <si>
+    <t>Re-named in AllLinks.csv as ANODE</t>
+  </si>
+  <si>
+    <t>Re-named in AllLinks.csv as BNODE</t>
+  </si>
+  <si>
+    <t>Used to define volume delay functions (either 0 or 1)</t>
+  </si>
+  <si>
+    <t>Allowed Modes</t>
+  </si>
+  <si>
+    <t>Length of the link segement - represents spatial detail</t>
+  </si>
+  <si>
+    <t>Internal working field in SWIM - calculated from TEMP_CAPACITY * NUMLANES</t>
+  </si>
+  <si>
+    <t>Free Flow Speed (usually simplified to be posted speed)</t>
+  </si>
+  <si>
+    <t>Important User Attribute, Defines Capacity per Lane, used in parameters files to update CapPRT</t>
+  </si>
+  <si>
+    <t>The total sqft for the given alpha zone, Used  in SWIM VIZ Querey</t>
+  </si>
+  <si>
+    <t>History hold-over from SWIM 2.0</t>
+  </si>
+  <si>
+    <t>Internal Attribute used to set link auto cost before assignment</t>
+  </si>
+  <si>
+    <t>Internal Attribute used to set link truck cost before assignment</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +2283,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1562,11 +2293,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D272"/>
+    <sheetView topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="D245" sqref="D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="120.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -4954,35 +5691,33 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>391</v>
+        <v>230</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>394</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D264" s="1"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>261</v>
@@ -4990,13 +5725,11 @@
       <c r="C265" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>395</v>
-      </c>
+      <c r="D265" s="1"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>261</v>
@@ -5008,7 +5741,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>261</v>
@@ -5016,11 +5749,13 @@
       <c r="C267" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D267" s="1"/>
+      <c r="D267" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>261</v>
@@ -5032,7 +5767,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>261</v>
@@ -5040,13 +5775,11 @@
       <c r="C269" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D269" s="1" t="s">
-        <v>399</v>
-      </c>
+      <c r="D269" s="1"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>261</v>
@@ -5058,27 +5791,7363 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D271" s="1"/>
+        <v>391</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D272" s="1"/>
+        <v>391</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D272">
+    <sortCondition descending="1" ref="C2:C272"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F180"/>
+  <sheetViews>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164:D178"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B2" s="1" t="e">
+        <f>VLOOKUP(A2,Sheet1!A:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" s="1" t="e">
+        <f>VLOOKUP(A3,Sheet1!A:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>VLOOKUP(A4,Sheet1!A:D,2,FALSE)</f>
+        <v>AllZones.csv</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(A4,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D4" s="1">
+        <f>VLOOKUP(A4,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>VLOOKUP(A5,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="e">
+        <f>VLOOKUP(A6,Sheet1!A:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <f>VLOOKUP(A6,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="e">
+        <f>VLOOKUP(A7,Sheet1!A:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <f>VLOOKUP(A7,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>VLOOKUP(A8,Sheet1!A:D,2,FALSE)</f>
+        <v>alpha2beta.csv</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>VLOOKUP(A8,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="e">
+        <f>VLOOKUP(A9,Sheet1!A:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <f>VLOOKUP(A9,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="e">
+        <f>VLOOKUP(A10,Sheet1!A:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>VLOOKUP(A11,Sheet1!A:D,2,FALSE)</f>
+        <v>alpha2beta.csv</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>VLOOKUP(A11,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>VLOOKUP(A12,Sheet1!A:D,2,FALSE)</f>
+        <v>AllZones.csv</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>VLOOKUP(A12,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>VLOOKUP(A12,Sheet1!A:D,4,FALSE)</f>
+        <v>Alpha zone</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A13,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Beaches and Dunes</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>VLOOKUP(A14,Sheet1!A:D,2,FALSE)</f>
+        <v>AllZones.csv</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>VLOOKUP(A14,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>VLOOKUP(A14,Sheet1!A:D,4,FALSE)</f>
+        <v>Beta zone</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>406</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A15,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Commercial - Central</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>407</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A16,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Coastal Estuarine</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A17,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Combo equal emphasis</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>409</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A18,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Commercial - General</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>410</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A19,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Commercial - Neighborhood</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>VLOOKUP(A20,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>VLOOKUP(A20,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D20" s="1">
+        <f>VLOOKUP(A20,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>VLOOKUP(A21,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>VLOOKUP(A21,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D21" s="1">
+        <f>VLOOKUP(A21,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>VLOOKUP(A22,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>VLOOKUP(A22,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D22" s="1">
+        <f>VLOOKUP(A22,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>VLOOKUP(A23,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>VLOOKUP(A23,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D23" s="1">
+        <f>VLOOKUP(A23,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>VLOOKUP(A24,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>VLOOKUP(A24,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D24" s="1">
+        <f>VLOOKUP(A24,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>411</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A25,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Commercial - Office</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>VLOOKUP(A26,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>VLOOKUP(A27,Sheet1!A:D,2,FALSE)</f>
+        <v>alpha2beta.csv</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>VLOOKUP(A27,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D27" s="1">
+        <f>VLOOKUP(A27,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>412</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A28,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Combo with priority emphasis</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>413</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A29,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Coastal Shorelands</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>VLOOKUP(A30,Sheet1!A:D,2,FALSE)</f>
+        <v>alpha2beta.csv</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>VLOOKUP(A30,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>VLOOKUP(A31,Sheet1!A:D,2,FALSE)</f>
+        <v>AllZones.csv</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>VLOOKUP(A31,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>414</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A32,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Exclusive Farm Use 160+</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>415</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A33,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Exclusive Farm Use 20+</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>416</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A34,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Exclusive Farm Use 40+</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>417</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A35,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Exclusive Farm Use 80</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>VLOOKUP(A36,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>VLOOKUP(A36,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D36" s="1">
+        <f>VLOOKUP(A36,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f>VLOOKUP(A37,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>VLOOKUP(A37,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D37" s="1">
+        <f>VLOOKUP(A37,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f>VLOOKUP(A38,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>VLOOKUP(A38,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D38" s="1">
+        <f>VLOOKUP(A38,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>VLOOKUP(A39,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>VLOOKUP(A39,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D39" s="1">
+        <f>VLOOKUP(A39,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f>VLOOKUP(A40,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>VLOOKUP(A40,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D40" s="1">
+        <f>VLOOKUP(A40,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f>VLOOKUP(A41,Sheet1!A:D,2,FALSE)</f>
+        <v>alpha2beta.csv</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>VLOOKUP(A41,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>418</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A42,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Mixed Farm-Forest 160+</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>419</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A43,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Mixed Farm-Forest 20</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>420</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A44,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Mixed Farm-Forest 40</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>421</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A45,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Mixed Farm-Forest 80</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>VLOOKUP(A46,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>VLOOKUP(A46,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D46" s="1">
+        <f>VLOOKUP(A46,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f>VLOOKUP(A47,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>VLOOKUP(A47,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D47" s="1">
+        <f>VLOOKUP(A47,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>VLOOKUP(A48,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>VLOOKUP(A48,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f>VLOOKUP(A48,Sheet1!A:D,4,FALSE)</f>
+        <v>Floorspace for ACCOMMODATIONS</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f>VLOOKUP(A49,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>VLOOKUP(A49,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f>VLOOKUP(A49,Sheet1!A:D,4,FALSE)</f>
+        <v>Floorspace for AGRICULTURE AND MINING</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f>VLOOKUP(A50,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>VLOOKUP(A50,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D50" s="1">
+        <f>VLOOKUP(A50,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f>VLOOKUP(A51,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>VLOOKUP(A51,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f>VLOOKUP(A51,Sheet1!A:D,4,FALSE)</f>
+        <v>Floorspace for GOVERNMENT ADMINISTRATION</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f>VLOOKUP(A52,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>VLOOKUP(A52,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f>VLOOKUP(A52,Sheet1!A:D,4,FALSE)</f>
+        <v>Floorspace for *-Heavy Industry</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f>VLOOKUP(A53,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>VLOOKUP(A53,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f>VLOOKUP(A53,Sheet1!A:D,4,FALSE)</f>
+        <v>Floorspace for HEALTH SERVICES-Hospital</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f>VLOOKUP(A54,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>VLOOKUP(A54,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f>VLOOKUP(A54,Sheet1!A:D,4,FALSE)</f>
+        <v>Floorspace for HEALTH SERVICES-Institutional</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f>VLOOKUP(A55,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>VLOOKUP(A55,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f>VLOOKUP(A55,Sheet1!A:D,4,FALSE)</f>
+        <v>Floorspace for LOWER EDUCATION</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f>VLOOKUP(A56,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f>VLOOKUP(A56,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f>VLOOKUP(A56,Sheet1!A:D,4,FALSE)</f>
+        <v>Floorspace for *-Light Industry</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f>VLOOKUP(A57,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f>VLOOKUP(A57,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f>VLOOKUP(A57,Sheet1!A:D,4,FALSE)</f>
+        <v>Floorspace for FORESTRY AND LOGGING</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f>VLOOKUP(A58,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f>VLOOKUP(A58,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D58" s="1">
+        <f>VLOOKUP(A58,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f>VLOOKUP(A59,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f>VLOOKUP(A59,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D59" s="1">
+        <f>VLOOKUP(A59,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f>VLOOKUP(A60,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f>VLOOKUP(A60,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f>VLOOKUP(A60,Sheet1!A:D,4,FALSE)</f>
+        <v>Floorspace for *-Office</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1" t="e">
+        <f>VLOOKUP(A61,Sheet1!A:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1">
+        <f>VLOOKUP(A61,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f>VLOOKUP(A62,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f>VLOOKUP(A62,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f>VLOOKUP(A62,Sheet1!A:D,4,FALSE)</f>
+        <v>Floorspace for RETAIL TRADE</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f>VLOOKUP(A63,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f>VLOOKUP(A63,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D63" s="1">
+        <f>VLOOKUP(A63,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f>VLOOKUP(A64,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f>VLOOKUP(A64,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D64" s="1">
+        <f>VLOOKUP(A64,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f>VLOOKUP(A65,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f>VLOOKUP(A65,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D65" s="1">
+        <f>VLOOKUP(A65,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f>VLOOKUP(A66,Sheet1!A:D,2,FALSE)</f>
+        <v>FloorspaceInventory.csv</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f>VLOOKUP(A66,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f>VLOOKUP(A66,Sheet1!A:D,4,FALSE)</f>
+        <v>Floorspace for WHOLESALE Trade-Warehouse</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>422</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A67,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Federal Forest</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>423</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A68,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Future Urban Development</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f>VLOOKUP(A69,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f>VLOOKUP(A69,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D69" s="1">
+        <f>VLOOKUP(A69,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f>VLOOKUP(A70,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f>VLOOKUP(A70,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D70" s="1">
+        <f>VLOOKUP(A70,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f>VLOOKUP(A71,Sheet1!A:D,2,FALSE)</f>
+        <v>alpha2beta.csv</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f>VLOOKUP(A71,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D71" s="1">
+        <f>VLOOKUP(A71,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>424</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A72,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - High-density Res.</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f>VLOOKUP(A73,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f>VLOOKUP(A73,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f>VLOOKUP(A73,Sheet1!A:D,4,FALSE)</f>
+        <v>Household Income $0 to 4,999 Household size 1 to 2 persons</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f>VLOOKUP(A74,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f>VLOOKUP(A74,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <f>VLOOKUP(A74,Sheet1!A:D,4,FALSE)</f>
+        <v xml:space="preserve">Household Income $5,000 to 9,999 Household size 1 to 2 persons </v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f>VLOOKUP(A75,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f>VLOOKUP(A75,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <f>VLOOKUP(A75,Sheet1!A:D,4,FALSE)</f>
+        <v>Household Income $10,000 to 14,999 Household size 1 to 2 persons</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f>VLOOKUP(A76,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f>VLOOKUP(A76,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f>VLOOKUP(A76,Sheet1!A:D,4,FALSE)</f>
+        <v xml:space="preserve">Household Income $15,000 to 19,999 Household size 1 to 2 persons </v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f>VLOOKUP(A77,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f>VLOOKUP(A77,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <f>VLOOKUP(A77,Sheet1!A:D,4,FALSE)</f>
+        <v xml:space="preserve">Household Income $20,000 to 29,999 Household size 1 to 2 persons </v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f>VLOOKUP(A78,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f>VLOOKUP(A78,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f>VLOOKUP(A78,Sheet1!A:D,4,FALSE)</f>
+        <v xml:space="preserve">Household Income $30,000 to 39,999 Household size 1 to 2 persons </v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f>VLOOKUP(A79,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f>VLOOKUP(A79,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f>VLOOKUP(A79,Sheet1!A:D,4,FALSE)</f>
+        <v xml:space="preserve">Household Income $40,000 to 49,999 Household size 1 to 2 persons </v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f>VLOOKUP(A80,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f>VLOOKUP(A80,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f>VLOOKUP(A80,Sheet1!A:D,4,FALSE)</f>
+        <v xml:space="preserve">Household Income $50,000 to 69,999 Household size 1 to 2 persons </v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f>VLOOKUP(A81,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f>VLOOKUP(A81,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f>VLOOKUP(A81,Sheet1!A:D,4,FALSE)</f>
+        <v xml:space="preserve">Household Income over $70,000 Household size 1 to 2 persons </v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f>VLOOKUP(A82,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f>VLOOKUP(A82,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <f>VLOOKUP(A82,Sheet1!A:D,4,FALSE)</f>
+        <v>Household Income $0 to 4,999 Household size 3 or more persons</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f>VLOOKUP(A83,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f>VLOOKUP(A83,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D83" s="1" t="str">
+        <f>VLOOKUP(A83,Sheet1!A:D,4,FALSE)</f>
+        <v>Household Income $5,000 to 9,999 Household size 3 or more persons</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f>VLOOKUP(A84,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f>VLOOKUP(A84,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D84" s="1" t="str">
+        <f>VLOOKUP(A84,Sheet1!A:D,4,FALSE)</f>
+        <v>Household Income $10,000 to 14,999 Household size 3 or more persons</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <f>VLOOKUP(A85,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f>VLOOKUP(A85,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D85" s="1" t="str">
+        <f>VLOOKUP(A85,Sheet1!A:D,4,FALSE)</f>
+        <v>Household Income $15,000 to 19,999 Household size 3 or more persons</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <f>VLOOKUP(A86,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f>VLOOKUP(A86,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D86" s="1" t="str">
+        <f>VLOOKUP(A86,Sheet1!A:D,4,FALSE)</f>
+        <v>Household Income $20,000 to 29,999 Household size 3 or more persons</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f>VLOOKUP(A87,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f>VLOOKUP(A87,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D87" s="1" t="str">
+        <f>VLOOKUP(A87,Sheet1!A:D,4,FALSE)</f>
+        <v>Household Income $30,000 to 39,999 Household size 3 or more persons</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <f>VLOOKUP(A88,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f>VLOOKUP(A88,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D88" s="1" t="str">
+        <f>VLOOKUP(A88,Sheet1!A:D,4,FALSE)</f>
+        <v>Household Income $40,000 to 49,999 Household size 3 or more persons</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <f>VLOOKUP(A89,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f>VLOOKUP(A89,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D89" s="1" t="str">
+        <f>VLOOKUP(A89,Sheet1!A:D,4,FALSE)</f>
+        <v>Household Income $50,000 to 69,999 Household size 3 or more persons</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f>VLOOKUP(A90,Sheet1!A:D,2,FALSE)</f>
+        <v>ActivityConstraintsI.csv</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f>VLOOKUP(A90,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D90" s="1" t="str">
+        <f>VLOOKUP(A90,Sheet1!A:D,4,FALSE)</f>
+        <v>Household Income $70,000 and over  Household size 3 or more persons</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" s="1" t="str">
+        <f>VLOOKUP(A91,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C91" s="1" t="str">
+        <f>VLOOKUP(A91,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D91" s="1">
+        <f>VLOOKUP(A91,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" s="1" t="str">
+        <f>VLOOKUP(A92,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C92" s="1" t="str">
+        <f>VLOOKUP(A92,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D92" s="1">
+        <f>VLOOKUP(A92,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f>VLOOKUP(A93,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C93" s="1" t="str">
+        <f>VLOOKUP(A93,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D93" s="1">
+        <f>VLOOKUP(A93,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f>VLOOKUP(A94,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f>VLOOKUP(A94,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D94" s="1">
+        <f>VLOOKUP(A94,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f>VLOOKUP(A95,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f>VLOOKUP(A95,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D95" s="1">
+        <f>VLOOKUP(A95,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="1" t="str">
+        <f>VLOOKUP(A96,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f>VLOOKUP(A96,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D96" s="1">
+        <f>VLOOKUP(A96,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97" s="1" t="str">
+        <f>VLOOKUP(A97,Sheet1!A:D,2,FALSE)</f>
+        <v>alpha2beta.csv</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f>VLOOKUP(A97,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D97" s="1">
+        <f>VLOOKUP(A97,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f>VLOOKUP(A98,Sheet1!A:D,2,FALSE)</f>
+        <v>alpha2beta.csv</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f>VLOOKUP(A98,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D98" s="1">
+        <f>VLOOKUP(A98,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>425</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A99,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Industrial Campus</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>426</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A100,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Industral - Heavy</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>427</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A101,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Industral - Light</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="1" t="str">
+        <f>VLOOKUP(A102,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f>VLOOKUP(A102,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D102" s="1">
+        <f>VLOOKUP(A102,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="1" t="str">
+        <f>VLOOKUP(A103,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f>VLOOKUP(A103,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D103" s="1">
+        <f>VLOOKUP(A103,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>428</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A104,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Industrial Office</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>429</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A105,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Indian reservation/tribal trust</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" s="1" t="str">
+        <f>VLOOKUP(A106,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f>VLOOKUP(A106,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D106" s="1">
+        <f>VLOOKUP(A106,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107" s="1" t="str">
+        <f>VLOOKUP(A107,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f>VLOOKUP(A107,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D107" s="1">
+        <f>VLOOKUP(A107,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>430</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A108,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Low-density Res.</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="1" t="str">
+        <f>VLOOKUP(A109,Sheet1!A:D,2,FALSE)</f>
+        <v>alpha2beta.csv</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f>VLOOKUP(A109,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D109" s="1">
+        <f>VLOOKUP(A109,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>431</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A110,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Mineral and Aggregate</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>432</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A111,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Medium-density Res.</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" s="1" t="str">
+        <f>VLOOKUP(A112,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f>VLOOKUP(A112,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D112" s="1" t="str">
+        <f>VLOOKUP(A112,Sheet1!A:D,4,FALSE)</f>
+        <v>Manufacturing FOOD - Heavy Industry</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <f>VLOOKUP(A113,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f>VLOOKUP(A113,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D113" s="1" t="str">
+        <f>VLOOKUP(A113,Sheet1!A:D,4,FALSE)</f>
+        <v>Manufacturing FOOD - Light Industry</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <f>VLOOKUP(A114,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f>VLOOKUP(A114,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D114" s="1" t="str">
+        <f>VLOOKUP(A114,Sheet1!A:D,4,FALSE)</f>
+        <v>Manufacturing HIGH TECH - Heavy Industry</v>
+      </c>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115" s="1" t="str">
+        <f>VLOOKUP(A115,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f>VLOOKUP(A115,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D115" s="1" t="str">
+        <f>VLOOKUP(A115,Sheet1!A:D,4,FALSE)</f>
+        <v>Manufacturing HIGH TECH - Light Industry</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>130</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f>VLOOKUP(A116,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f>VLOOKUP(A116,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D116" s="1">
+        <f>VLOOKUP(A116,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>131</v>
+      </c>
+      <c r="B117" s="1" t="str">
+        <f>VLOOKUP(A117,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C117" s="1" t="str">
+        <f>VLOOKUP(A117,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D117" s="1">
+        <f>VLOOKUP(A117,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>132</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f>VLOOKUP(A118,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f>VLOOKUP(A118,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D118" s="1">
+        <f>VLOOKUP(A118,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>133</v>
+      </c>
+      <c r="B119" s="1" t="str">
+        <f>VLOOKUP(A119,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f>VLOOKUP(A119,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D119" s="1">
+        <f>VLOOKUP(A119,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>134</v>
+      </c>
+      <c r="B120" s="1" t="str">
+        <f>VLOOKUP(A120,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f>VLOOKUP(A120,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D120" s="1">
+        <f>VLOOKUP(A120,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>433</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A121,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Marginal Farm Land 10+</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>434</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A122,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Medium High-density Res.</v>
+      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>435</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A123,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Medium Low-density Res.</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f>VLOOKUP(A124,Sheet1!A:D,2,FALSE)</f>
+        <v>AllZones.csv</v>
+      </c>
+      <c r="C124" s="1" t="str">
+        <f>VLOOKUP(A124,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D124" s="1">
+        <f>VLOOKUP(A124,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125" s="1" t="str">
+        <f>VLOOKUP(A125,Sheet1!A:D,2,FALSE)</f>
+        <v>alpha2beta.csv</v>
+      </c>
+      <c r="C125" s="1" t="str">
+        <f>VLOOKUP(A125,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D125" s="1">
+        <f>VLOOKUP(A125,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126" s="1" t="str">
+        <f>VLOOKUP(A126,Sheet1!A:D,2,FALSE)</f>
+        <v>alpha2beta.csv</v>
+      </c>
+      <c r="C126" s="1" t="str">
+        <f>VLOOKUP(A126,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D126" s="1">
+        <f>VLOOKUP(A126,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>436</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A127,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Mixed-Use Com. &amp; Res. Extremely High</v>
+      </c>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>437</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A128,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Mixed-Use Com. &amp; Res. High</v>
+      </c>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>438</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A129,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Mixed-Use Com. &amp; Res. Low</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>439</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A130,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Mixed-Use Com. &amp; Res. Medium</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>440</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A131,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Mixed-Use Com. &amp; Res. Med-high</v>
+      </c>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>441</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A132,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Mixed-Use Com. &amp; Res. V.High</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133" s="1" t="str">
+        <f>VLOOKUP(A133,Sheet1!A:D,2,FALSE)</f>
+        <v>alpha2beta.csv</v>
+      </c>
+      <c r="C133" s="1" t="str">
+        <f>VLOOKUP(A133,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D133" s="1">
+        <f>VLOOKUP(A133,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>442</v>
+      </c>
+      <c r="B134" s="1" t="str">
+        <f>VLOOKUP(A134,Sheet1!A:D,2,FALSE)</f>
+        <v>AllLinks.csv</v>
+      </c>
+      <c r="C134" s="1" t="str">
+        <f>VLOOKUP(A134,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D134" s="1">
+        <f>VLOOKUP(A134,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>443</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A135,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Other</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>444</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A136,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Open Space/Conservation</v>
+      </c>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" s="1" t="str">
+        <f>VLOOKUP(A137,Sheet1!A:D,2,FALSE)</f>
+        <v>alpha2beta.csv</v>
+      </c>
+      <c r="C137" s="1" t="str">
+        <f>VLOOKUP(A137,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D137" s="1">
+        <f>VLOOKUP(A137,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>445</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A138,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Public &amp; semi-public Uses</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>446</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A139,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Prime Forest 80</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>447</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A140,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Parks &amp; Open Space</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="1" t="str">
+        <f>VLOOKUP(A141,Sheet1!A:D,2,FALSE)</f>
+        <v>alpha2beta.csv</v>
+      </c>
+      <c r="C141" s="1" t="str">
+        <f>VLOOKUP(A141,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D141" s="1">
+        <f>VLOOKUP(A141,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" s="1" t="str">
+        <f>VLOOKUP(A142,Sheet1!A:D,2,FALSE)</f>
+        <v>alpha2beta.csv</v>
+      </c>
+      <c r="C142" s="1" t="str">
+        <f>VLOOKUP(A142,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D142" s="1">
+        <f>VLOOKUP(A142,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>448</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A143,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Rural Commercial</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" s="1" t="str">
+        <f>VLOOKUP(A144,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C144" s="1" t="str">
+        <f>VLOOKUP(A144,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D144" s="1">
+        <f>VLOOKUP(A144,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145" s="1" t="str">
+        <f>VLOOKUP(A145,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C145" s="1" t="str">
+        <f>VLOOKUP(A145,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D145" s="1">
+        <f>VLOOKUP(A145,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146" s="1" t="str">
+        <f>VLOOKUP(A146,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C146" s="1" t="str">
+        <f>VLOOKUP(A146,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D146" s="1">
+        <f>VLOOKUP(A146,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147" s="1" t="str">
+        <f>VLOOKUP(A147,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C147" s="1" t="str">
+        <f>VLOOKUP(A147,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D147" s="1">
+        <f>VLOOKUP(A147,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148" s="1" t="str">
+        <f>VLOOKUP(A148,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C148" s="1" t="str">
+        <f>VLOOKUP(A148,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D148" s="1">
+        <f>VLOOKUP(A148,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149" s="1" t="str">
+        <f>VLOOKUP(A149,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C149" s="1" t="str">
+        <f>VLOOKUP(A149,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D149" s="1">
+        <f>VLOOKUP(A149,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150" s="1" t="str">
+        <f>VLOOKUP(A150,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C150" s="1" t="str">
+        <f>VLOOKUP(A150,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D150" s="1">
+        <f>VLOOKUP(A150,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>449</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A151,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Rural Industrial</v>
+      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>450</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A152,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Federal Range</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>451</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A153,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Rural Residential 1 acre</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>452</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A154,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Rural Residential 10 acres</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>453</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A155,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Rural Residential 2-4 acres</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>454</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A156,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Rural Residential 5 acres</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>168</v>
+      </c>
+      <c r="B157" s="1" t="e">
+        <f>VLOOKUP(A157,Sheet1!A:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="1">
+        <f>VLOOKUP(A157,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158" s="1" t="str">
+        <f>VLOOKUP(A158,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C158" s="1" t="str">
+        <f>VLOOKUP(A158,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D158" s="1">
+        <f>VLOOKUP(A158,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>170</v>
+      </c>
+      <c r="B159" s="1" t="str">
+        <f>VLOOKUP(A159,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C159" s="1" t="str">
+        <f>VLOOKUP(A159,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D159" s="1">
+        <f>VLOOKUP(A159,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>171</v>
+      </c>
+      <c r="B160" s="1" t="str">
+        <f>VLOOKUP(A160,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C160" s="1" t="str">
+        <f>VLOOKUP(A160,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D160" s="1">
+        <f>VLOOKUP(A160,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>172</v>
+      </c>
+      <c r="B161" s="1" t="str">
+        <f>VLOOKUP(A161,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C161" s="1" t="str">
+        <f>VLOOKUP(A161,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D161" s="1">
+        <f>VLOOKUP(A161,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162" s="1" t="str">
+        <f>VLOOKUP(A162,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C162" s="1" t="str">
+        <f>VLOOKUP(A162,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D162" s="1">
+        <f>VLOOKUP(A162,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>174</v>
+      </c>
+      <c r="B163" s="1" t="str">
+        <f>VLOOKUP(A163,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C163" s="1" t="str">
+        <f>VLOOKUP(A163,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D163" s="1">
+        <f>VLOOKUP(A163,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>455</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A164,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Secondary Forest 80</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>175</v>
+      </c>
+      <c r="B165" s="1" t="e">
+        <f>VLOOKUP(A165,Sheet1!A:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="1">
+        <f>VLOOKUP(A165,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>176</v>
+      </c>
+      <c r="B166" s="1" t="e">
+        <f>VLOOKUP(A166,Sheet1!A:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="1">
+        <f>VLOOKUP(A166,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>177</v>
+      </c>
+      <c r="B167" s="1" t="str">
+        <f>VLOOKUP(A167,Sheet1!A:D,2,FALSE)</f>
+        <v>AllZones.csv</v>
+      </c>
+      <c r="C167" s="1" t="str">
+        <f>VLOOKUP(A167,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D167" s="1">
+        <f>VLOOKUP(A167,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>178</v>
+      </c>
+      <c r="B168" s="1" t="str">
+        <f>VLOOKUP(A168,Sheet1!A:D,2,FALSE)</f>
+        <v>alpha2beta.csv</v>
+      </c>
+      <c r="C168" s="1" t="str">
+        <f>VLOOKUP(A168,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D168" s="1">
+        <f>VLOOKUP(A168,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>179</v>
+      </c>
+      <c r="B169" s="1" t="str">
+        <f>VLOOKUP(A169,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C169" s="1" t="str">
+        <f>VLOOKUP(A169,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D169" s="1">
+        <f>VLOOKUP(A169,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>180</v>
+      </c>
+      <c r="B170" s="1" t="str">
+        <f>VLOOKUP(A170,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C170" s="1" t="str">
+        <f>VLOOKUP(A170,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D170" s="1">
+        <f>VLOOKUP(A170,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>181</v>
+      </c>
+      <c r="B171" s="1" t="str">
+        <f>VLOOKUP(A171,Sheet1!A:D,2,FALSE)</f>
+        <v>AllZones.csv</v>
+      </c>
+      <c r="C171" s="1" t="str">
+        <f>VLOOKUP(A171,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D171" s="1">
+        <f>VLOOKUP(A171,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>456</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A172,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - UC Rural Commercial</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>457</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A173,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - UC Rural Industrial</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B174" s="1" t="str">
+        <f>VLOOKUP(A174,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C174" s="1" t="str">
+        <f>VLOOKUP(A174,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D174" s="1">
+        <f>VLOOKUP(A174,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>210</v>
+      </c>
+      <c r="B175" s="1" t="str">
+        <f>VLOOKUP(A175,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C175" s="1" t="str">
+        <f>VLOOKUP(A175,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D175" s="1">
+        <f>VLOOKUP(A175,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>458</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A176,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Very High-density Res.</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>459</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A177,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Very Low-density Res.</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>460</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A178,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Water</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>211</v>
+      </c>
+      <c r="B179" s="1" t="str">
+        <f>VLOOKUP(A179,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C179" s="1" t="str">
+        <f>VLOOKUP(A179,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D179" s="1">
+        <f>VLOOKUP(A179,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>212</v>
+      </c>
+      <c r="B180" s="1" t="str">
+        <f>VLOOKUP(A180,Sheet1!A:D,2,FALSE)</f>
+        <v>activity_forecast.csv</v>
+      </c>
+      <c r="C180" s="1" t="str">
+        <f>VLOOKUP(A180,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D180" s="1">
+        <f>VLOOKUP(A180,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B180"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I170"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>643</v>
+      </c>
+      <c r="E4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>598</v>
+      </c>
+      <c r="E10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B12" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B13" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>624</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>624</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>406</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>407</v>
+      </c>
+      <c r="B20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>408</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>409</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>410</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>543</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>543</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>411</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>412</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>413</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>414</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>415</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>416</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>417</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>543</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>418</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>419</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>420</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>421</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>555</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
+        <v>555</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>555</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>555</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>555</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>422</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>423</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>424</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" t="s">
+        <v>543</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" t="s">
+        <v>543</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>543</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" t="s">
+        <v>543</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" t="s">
+        <v>543</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" t="s">
+        <v>543</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" t="s">
+        <v>543</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>425</v>
+      </c>
+      <c r="B98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>426</v>
+      </c>
+      <c r="B99" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>427</v>
+      </c>
+      <c r="B100" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" t="s">
+        <v>543</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>428</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>429</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>430</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>431</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>432</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" t="s">
+        <v>543</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" t="s">
+        <v>543</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" t="s">
+        <v>543</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>128</v>
+      </c>
+      <c r="B114" t="s">
+        <v>543</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>130</v>
+      </c>
+      <c r="B115" t="s">
+        <v>543</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>131</v>
+      </c>
+      <c r="B116" t="s">
+        <v>543</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>132</v>
+      </c>
+      <c r="B117" t="s">
+        <v>543</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>133</v>
+      </c>
+      <c r="B118" t="s">
+        <v>543</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>134</v>
+      </c>
+      <c r="B119" t="s">
+        <v>543</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>433</v>
+      </c>
+      <c r="B120" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>434</v>
+      </c>
+      <c r="B121" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>435</v>
+      </c>
+      <c r="B122" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>436</v>
+      </c>
+      <c r="B124" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>437</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>438</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>439</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>440</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>441</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>443</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="1" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A130,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Other</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>444</v>
+      </c>
+      <c r="B131" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A131,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Open Space/Conservation</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" t="str">
+        <f>VLOOKUP(A132,Sheet1!A:D,2,FALSE)</f>
+        <v>alpha2beta.csv</v>
+      </c>
+      <c r="C132" t="str">
+        <f>VLOOKUP(A132,Sheet1!A:D,3,FALSE)</f>
+        <v>Zones</v>
+      </c>
+      <c r="D132" s="1">
+        <f>VLOOKUP(A132,Sheet1!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>445</v>
+      </c>
+      <c r="B133" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A133,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Public &amp; semi-public Uses</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>446</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A134,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Prime Forest 80</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>447</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="str">
+        <f>CONCATENATE("Zoning Category - ",VLOOKUP(A135,Sheet3!$A$1:$B$56,2,FALSE))</f>
+        <v>Zoning Category - Parks &amp; Open Space</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>448</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141" t="s">
+        <v>543</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" t="s">
+        <v>543</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" t="s">
+        <v>543</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144" t="s">
+        <v>543</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>449</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>450</v>
+      </c>
+      <c r="B146" t="s">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>451</v>
+      </c>
+      <c r="B147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>452</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>453</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>454</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>168</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>169</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>170</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>171</v>
+      </c>
+      <c r="B154" t="s">
+        <v>543</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>172</v>
+      </c>
+      <c r="B155" t="s">
+        <v>543</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>173</v>
+      </c>
+      <c r="B156" t="s">
+        <v>543</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>174</v>
+      </c>
+      <c r="B157" t="s">
+        <v>543</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>455</v>
+      </c>
+      <c r="B158" t="s">
+        <v>145</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>177</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>179</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>180</v>
+      </c>
+      <c r="B161" t="s">
+        <v>543</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>456</v>
+      </c>
+      <c r="B162" t="s">
+        <v>145</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>457</v>
+      </c>
+      <c r="B163" t="s">
+        <v>145</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>209</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>210</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>458</v>
+      </c>
+      <c r="B166" t="s">
+        <v>145</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>459</v>
+      </c>
+      <c r="B167" t="s">
+        <v>145</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>460</v>
+      </c>
+      <c r="B168" t="s">
+        <v>145</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>211</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>212</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E180">
+    <sortCondition descending="1" ref="E2:E180"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>621</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>622</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>292</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>306</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>310</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>312</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>316</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>319</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>321</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>323</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>325</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>327</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>329</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>331</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>333</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>335</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>337</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>339</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>341</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>357</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D47" t="s">
+        <v>641</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>363</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="93" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
